--- a/500all/speech_level/speeches_CHRG-114hhrg93280.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93280.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    We welcome everyone to today's hearing on Consumers Shortchanged? Oversight of the Justice Department's Mortgage Lending Settlements. I will recognize myself for a brief opening statement.    Welcome to this hearing entitled ``Consumers Shortchanged? Oversight of the Justice Department's Mortgage Lending Settlements.'' At issue are DOJ's high profile settlements with JPMorgan, Citi, and Bank of America over their activities related to the financial crisis. The Committee is concerned that too much of the settlement money is not making it directly to consumers genuinely harmed.    The Citi and Bank of America settlements require the banks to donate at least $150 million and as much as over a half billion dollars to activist groups. To be sure, those groups do engage in housing counseling and related activities, but those activities are most helpful to families still in their homes. What about the millions of Americans who have already lost their homes?    I know the Department of Justice responds that the mandatory donation provisions represent only a small portion of the consumer relief packages which total in the billions, but tell that to Jeff and Robin Brown. After the Chrysler plant in Newark, Delaware closed in 2009, they fell on hard times. Frustrating attempts to renegotiate their mortgage with Citi was were fruitless. They lost $3,000 to a loan assistance scam, then they received an eviction notice.    The request for two extra weeks so Robin could recover from a setback with her multiple sclerosis was denied. So they looked at what they could and they took what they were able and departed the home they had saved for and lived in for 8 years. As a result of the settlement, they got a check from Citi for $500.    Their experience is detailed, along with others, in a Delaware online story titled ``Some Who Lost Homes Feel Forgotten in Foreclosure Settlements.'' They are upset that the State of Delaware is poised to spend the remaining $36.6 million on community service projects instead of actual victims. I want to know why DOJ did not do more to ensure that States receiving settlement money put victims before pet projects.    The evidence is not nearly anecdotal. The story noted that of 32,000 homeowners foreclosed upon, only about a thousand ever received compensation. Most checks were for less than $1,500. That is just in Delaware. Since 2008, there have been 4.9 million foreclosures nationwide. It is a cruel irony that those who have lost the most to the foreclosure crisis seem to be helped the least from DOJ settlements.    Loan modifications cannot assist those already evicted. They should have the strongest claim to the limited amount of hard dollars that the banks are paying out. Instead, the cash is going to activist groups because they work with victims of the housing crisis. I guess this means the Administration does believe in trickle-down economics so long as the money is trickling through activist groups. I hope these groups at least do good work because Congress already funds some of them through Federal grants.    But therein lies another problem. It is the role of the Congress, not the executive, to allocate funds. This is a core feature of our constitutional system of separation of powers. James Madison called Congress' appropriations power ``the most effectual weapon.'' He noted it was the power of the purse that allowed the British Parliament to reduce ``the overgrown prerogatives of the other branches of government.''    Also oversight is lacking. For example, the Legal Services Corporation, which provides funding for legal aid, has a dedicated oversight section to monitor grantees. The bank settlement provides no such oversight to ensure the recipient of donations use them as intended. If the money is not being used to lift up those most affected by the housing crisis, should we not at least be concerned about how it is spent? In short, the mandatory donation provisions also raise a host of legal and policy issues, including potential violations of the Miscellaneous Receipts Act and internal DOJ policies.    I thank Deputy Assistant Attorney Graber and all of our witnesses for attending, and I look forward to the discussion. Unfortunately, my good friend, Mr. Johnson, is not here today because he has the flu, and he is the Ranking Member of the Subcommittee. But we are also honored and fortunate enough to have the Ranking Member of the full Committee, Mr. Conyers. So I am now going to ask Mr. Conyers to make an opening statement if he wishes to.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman. I do wish to. Members of the Committee, the stated purpose of today's hearing is to determine whether there has been a misuse of mortgage settlement funds by the Administration for its so-called ``pet projects.'' In truth, however, this really is a hearing, a misguided hearing, a witch hunt, that has absolutely nothing to do with helping the millions of hardworking Americans who were swindled by unscrupulous and predatory mortgage lenders and mortgage services. Nor does it have anything to do with addressing the massive fraud committed by the securities industry that nearly led to the financial collapse of our Nation's economy.    Rather than focus on these critical issues, the majority has cited the so-called activist organizations and the Justice Department as the perpetrators worthy of this hearing. And who exactly are these entities? They are housing counseling programs administered at national, State, and local levels by service providers subject to a rigorous certification process by the United States Department of Housing and Urban Development. They include such organizations as the New York State Office for People with Developmental Disabilities, the Michigan State University Extension Service, the New York City Commission on Human Rights, and NeighborWorks America.    So let us take a look in depth at one of these organizations. NeighborWorks is chartered by Congress. Its board of directors, whose membership is determined by statute, consists of the heads of the financial regulatory agencies, who are presidential appointees subject to Senate confirmation. In fact, Congress in 2007 designated NeighborWorks America to administer the National Foreclosure Mitigation Counseling Program pursuant to which this organization has helped more than 1.725 million homeowners. That is almost 2 million homeowners.    If the majority really cared about the victims of the foreclosure crisis, we would be holding a hearing on either the mortgage crisis that still grips many parts of our Nation, or on how Congress could better assist those millions of Americans who still are at risk of losing their homes. Now, in stark contrast, when I was Chairman of this Committee, we held nine hearings and two field briefings examining the causes and impact of the foreclosure crisis as well as potential solutions. Over the course of those hearings, the Committee heard from a United States senator, various Members of the House, representatives from the Treasury Department, the Comptroller of the Currency, the Federal Housing Finance Agency, bankruptcy judges, nationally recognized economists, leading academics, victims of predatory mortgage lending, and many more voices.    Finally, I am particularly concerned that the majority has unfairly singled out the National Council of La Raza, which is the Nation's largest Hispanic civil rights and advocacy organization. The Chairman of this Committee and the Chairman of the Financial Services Committee in a letter to the Justice Department last November characterized La Raza as ``activist group that stands to benefit from the mortgage settlement agreements with Citicorp and the Bank of America.'' As detailed in a response from La Raza, which I ask unanimous consent to include in today's hearing record, there is absolutely no truth to this allegation.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t xml:space="preserve">    Mr. Marino. Thank you, Congressman Conyers. It is my pleasure now to recognize the Chairman of the full Judiciary Committee, the gentleman from Virginia, Congressman Goodlatte, for his opening statement.</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. This hearing opens a pattern or practice investigation into the Justice Department mortgage lending settlements. The concern is that DOJ may have systematically subverted Congress' budget authority by using settlements to funnel money to activist groups. The evidence is a progression of startling terms in the DOJ's mortgage banking settlements. It began with the JPMorgan settlement that merely offered credit for donations to community redevelopment groups. Next came Citi and Bank of America settlements requiring $150 million in donations to housing nonprofits.    These donations earned double credit against the banks' overall obligations. Meanwhile, credit for direct forms of consumer relief remain dollar for dollar. Bank of America's settlement also required it to set aside $490 million to pay potential consumer tax liability arising from loan modifications. Should Congress again extend the non-taxable treatment of home loan forgiveness, the money does not revert to the bank. Instead it flows to activist groups, like NeighborWorks America, which has been described as funding ``a national network of left wing community organizers operating in the mold of ACORN.''    All told, DOJ has directed as much as half a billion dollars to activist groups entirely outside of the congressional budget and oversight process. DOJ will say that the groups receiving donations provide relief to homeowners. Even assuming this housing-related work is entirely non-partisan, money is fungible. Donations to the housing arm of any recipient would free up funds for the recipient to engage in more controversial activism in other areas. Furthermore, the Miscellaneous Receipts Act, or MRA, requires that money received by the government from any source be deposited in the Treasury. Directing a defendant to pay money directly to a third party interest group is simply an end run around the law.    DoJ's own internal guidance documents acknowledge the potential for abuse when settlements require donations to third parties. The U.S. Attorney's Manual says that the practice is restricted because it can create actual or perceived conflicts-of-interest and/or other ethical issues. It was almost entirely banned in 2008 due to instances of perceived abuse.    Exception was made for environmental settlements in view of robust guidance issued by DOJ's Environment and Natural Resources Division. However, to the extent that guidance is the basis for an exemption, DOJ's banking settlements violate it. The guidance requires a mechanism to ensure that any party receiving the funds spends them in a manner consistent with the intent of the community service requirement. There is no such oversight in the DOJ's banking settlements. The monitor is responsible only for the bank's compliance, not how the activist groups who receive donations use them. Related guidance also caps credit for donations to community service projects at dollar for dollar.    Even more troubling, the guidelines state that community service cannot be of such a nature that it provides additional resources for the performance of an activity for which Congress specifically has appropriated funds. This ensures that the settlement does run not afoul of the Miscellaneous Receipts Act by unilaterally augmenting a congressional appropriation.    Congress specifically funds the Department of Housing and Urban Development's Housing Counseling Assistance Program. In a press release, La Raza, one of the largest grant recipients under the program, lamented that Congress cut funding from $88 million to $45 million. It subsequently praised DOJ bank settlements, which required $30 million in donations specifically to HUD-approved housing counseling agencies. Thus, DOJ's settlements appear to restore most of the funding that Congress specifically cut.    For DOJ to funnel money to third parties through settlements this way may violate the law and is undoubtedly bad policy. The purpose of enforcement actions is punishment and redress to actual victims. Carrying that concept to communities at large or activist community groups, however worthy, is a matter for the legislative branch and is not to be conducted at the unilateral discretion of the executive.    I thank all of our witnesses for appearing and look forward to their testimony today. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t xml:space="preserve">    Mr. Marino. We have a very distinguished member today from the Department of Justice. Welcome, sir, and I will begin by swearing you in. Would you please stand and raise your right hand, please?    Do you swear that the testimony you are about to give is the truth, the whole truth, and nothing but the truth, so help you God?</t>
   </si>
   <si>
-    <t>Graber</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graber. I do.</t>
   </si>
   <si>
@@ -328,9 +316,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chairman. Let me also thank the distinguished Ranking Member of the entire Committee. Mr. Graber, in 2008 our economy collapsed, correct?</t>
   </si>
   <si>
@@ -406,9 +391,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. Mr. Graber, how long have you been at the Justice Department?</t>
   </si>
   <si>
@@ -469,9 +451,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman. I appreciate your testimony. You know, it looks and smells a little bit like a slush fund. And I guess the critical question for me is when the settlements were reached with Citi, Chase, and B of A, how did they get access to the list for non-profits?</t>
   </si>
   <si>
@@ -529,9 +508,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman, and good to see you there leading us in this Committee now. There are several things that confuse me, Mr. Graber, as we have been starting this. One, it is interesting you have been asked several times about, you know, the chain of command, and where the orders come from, and how did this get in here. Let me make sure. The DOJ, you all actually negotiated these settlements, correct?</t>
   </si>
   <si>
@@ -601,9 +577,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman. Thank you, Mr. Graber, for your testimony. Is it the practice of the Department of Justice to send one person to a hearing like this?</t>
   </si>
   <si>
@@ -655,34 +628,22 @@
     <t xml:space="preserve">    Mr. Marino. Let the record reflect that the witnesses have affirmed their testimony. Thank you, ladies and gentlemen, for being here.    I am going to start with a brief introduction of our panel witnesses and get right to the questions. We are in a hard-pressed time to be out of here in about 45 or 50 minutes.    Mr. Paul Larkin is a senior research fellow and director of the Rule of Law Initiative Project for the Heritage Foundation, specializing in countering abuse of Federal criminal law. Mr. Larkin worked at the U.S. Department of Justice as an assistant to the Solicitor General and as a counsel in the Criminal Division's Organized Crime and Racketeering Section. During his time at the Environmental Protection Agency, he was a special agent and an acting director for the Criminal Enforcement Branch. Mr. Larkin also served as counsel to the Senate Judiciary Committee and was the chief of the Crime Unit under panel chairman, the Honorable Orrin Hatch.    Throughout his 25 years of practice, Mr. Larkin has argued before the Supreme Court in 27 cases. He is a graduate of Stanford Law School and a former law clerk for Judge Robert H. Bork on the U.S. Court of Appeals for the D.C. Circuit. Welcome, sir.    Mr. Ted Frank has won millions of dollars for consumers and shareholders through the non-profit Center of Class Action Fairness, which he founded in 2009. Mr. Frank has argued and won several landmark appellate cases protecting consumers from unfair class action settlements. His work in this area has been profiled by, among others, the Wall Street Journal, Forbes, the National Law Review, the ABA Journal, and The American Lawyer. He has testified before Federal and State legislative subcommittees multiple times about class action conflicts of interests and settlements and about legislative victim compensation programs.    Mr. Frank is a graduate of the University of Chicago Law School and a former law clerk to the Honorable Frank H. Easterbrook of the U.S. Court of Appeals for the 7th Circuit. Welcome, sir.</t>
   </si>
   <si>
-    <t>Frank</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Frank. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Ms. Mrose is the CEO of Compass Films of New York LLC. Her work focuses on the housing industry and the interaction between government, banks, housing advocates, and the economy. Her experience includes co-hosting a talk radio program and research on regulations issued by the Department of Housing and Urban Development.    Ms. Mrose is a graduate of Tufts University's Fletcher School of Law and Diplomacy, and welcome, ma'am.</t>
   </si>
   <si>
-    <t>Mrose</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Mrose. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. And I am sorry, Professor White, but I do not have your background. If someone gives it to me at some point I will read it. I apologize for it for not being here, but I do want to welcome you, and thank you for being here today, and we will get to your background when it is handed to me. I see it is right here. Thank you.    Professor Alan White joined the faculty of CUNY School of Law in 2012. He teaches consumer law, commercial law, bankruptcy, comparative private law, and contracts. The latter was not my favorite in law school. He is a nationally recognized expert on credit regulation in the residential mortgage market. Professor White is a past member of the Federal Reserve Board's Consumer Advisory Council, a member of the American Law Institute, and is currently serving as reporter for the Uniform Law Commission's Project on a residential real estate foreclosure statute.    He is quoted frequently in the national media, including the New York Times, the Wall Street Journal, and the Washington Post in connection with his research on the foreclosure crisis. He has published a number of research papers and articles on housing credit and consumer law issues, and has testified before Congress and at Federal agency hearings on the foreclosure crisis bankruptcy reform and predatory mortgage lending.    Before becoming a full-time teacher, Professor White was a supervising attorney at the North Philadelphia office of Community Legal Services, Inc., and was also a fellow and consultant with the National Consumer Law Center in Boston, and an adjunct professor with Temple University Law School and Drake University School of Law. His legal services practice includes representation of low income consumers in mortgage foreclosures, class actions, bankruptcies, student loan disputes, and real estate matters.    Mr. White received his B.S. from the Massachusetts Institute of Technology and his J.D. from the New York University School of Law. Welcome, sir.</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. White. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Each witness' written statement will be entered into the record in its entirety. I ask that each witness summarize his or her testimony in 5 minutes or less. And to help you with staying within that time, you see the lights in front of you. If the light switches from green to yellow, it means you have a minute left, and when it gets to red I will politely tap here to give you an indication if you would please wrap up.    The Chair now recognizes Mr. Larkin for his opening statement. Sir?</t>
-  </si>
-  <si>
-    <t>Larkin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Larkin. Mr. Chairman, Ranking----</t>
@@ -1336,11 +1297,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1360,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1386,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1414,11 +1369,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1438,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1466,11 +1417,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1490,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1518,11 +1465,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1542,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1570,11 +1513,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1596,11 +1537,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1620,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1648,11 +1585,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1672,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1700,11 +1633,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1724,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1752,11 +1681,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1776,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1802,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1828,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1854,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1880,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1906,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1932,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1958,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1984,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2010,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2036,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2062,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2088,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2114,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2140,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2166,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2192,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2218,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2244,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2270,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2298,11 +2185,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2322,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2348,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2374,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2400,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2426,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2452,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2478,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2504,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2530,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2556,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2582,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2610,11 +2473,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2634,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2660,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2686,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2712,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2738,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2764,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2790,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2818,11 +2665,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2842,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2870,11 +2713,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2894,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2922,11 +2761,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2946,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2974,11 +2809,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2998,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3026,11 +2857,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3050,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3078,11 +2905,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3102,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3130,11 +2953,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3154,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3182,11 +3001,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3206,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3234,11 +3049,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3258,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3286,11 +3097,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3310,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3338,11 +3145,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3362,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3390,11 +3193,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3414,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3442,11 +3241,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3466,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3494,11 +3289,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3518,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3546,11 +3337,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3570,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3596,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3622,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3648,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3674,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
         <v>104</v>
-      </c>
-      <c r="H92" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3700,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3726,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3752,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3778,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3804,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3830,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3856,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3882,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
-      </c>
-      <c r="G100" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3908,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3934,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>103</v>
-      </c>
-      <c r="G102" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3960,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3986,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
-      </c>
-      <c r="G104" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4014,11 +3769,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4038,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>103</v>
-      </c>
-      <c r="G106" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4064,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4090,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
-      </c>
-      <c r="G108" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4116,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4142,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>103</v>
-      </c>
-      <c r="G110" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4168,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4194,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
-      </c>
-      <c r="G112" t="s">
-        <v>104</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4222,11 +3961,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4246,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
-      </c>
-      <c r="G114" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4272,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4298,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>129</v>
-      </c>
-      <c r="G116" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4324,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4350,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>129</v>
-      </c>
-      <c r="G118" t="s">
-        <v>130</v>
-      </c>
-      <c r="H118" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4376,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4402,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4428,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4454,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>129</v>
-      </c>
-      <c r="G122" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4480,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4506,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>129</v>
-      </c>
-      <c r="G124" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4532,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4558,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>129</v>
-      </c>
-      <c r="G126" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4584,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4610,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>129</v>
-      </c>
-      <c r="G128" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4636,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4662,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>129</v>
-      </c>
-      <c r="G130" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4688,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4714,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>129</v>
-      </c>
-      <c r="G132" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4740,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4766,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>129</v>
-      </c>
-      <c r="G134" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4792,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4818,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>129</v>
-      </c>
-      <c r="G136" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4846,11 +4537,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4870,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>150</v>
-      </c>
-      <c r="G138" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4896,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4922,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>150</v>
-      </c>
-      <c r="G140" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4948,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4974,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
-      </c>
-      <c r="G142" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5000,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5026,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>150</v>
-      </c>
-      <c r="G144" t="s">
+        <v>144</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
         <v>151</v>
-      </c>
-      <c r="H144" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5052,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5078,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>150</v>
-      </c>
-      <c r="G146" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5104,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5130,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>150</v>
-      </c>
-      <c r="G148" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5156,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5182,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>150</v>
-      </c>
-      <c r="G150" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5208,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5234,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>150</v>
-      </c>
-      <c r="G152" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5260,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5286,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>150</v>
-      </c>
-      <c r="G154" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5314,11 +4969,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5338,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>170</v>
-      </c>
-      <c r="G156" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5364,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5390,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>170</v>
-      </c>
-      <c r="G158" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5416,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5442,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G160" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5468,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5494,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>170</v>
-      </c>
-      <c r="G162" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5520,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5546,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>170</v>
-      </c>
-      <c r="G164" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5572,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5598,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>170</v>
-      </c>
-      <c r="G166" t="s">
+        <v>163</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
         <v>171</v>
-      </c>
-      <c r="H166" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5624,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5650,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>170</v>
-      </c>
-      <c r="G168" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5676,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5702,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>170</v>
-      </c>
-      <c r="G170" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5728,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5754,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>170</v>
-      </c>
-      <c r="G172" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5780,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5806,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>170</v>
-      </c>
-      <c r="G174" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5832,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5858,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>170</v>
-      </c>
-      <c r="G176" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5884,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5910,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>170</v>
-      </c>
-      <c r="G178" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5936,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5962,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>170</v>
-      </c>
-      <c r="G180" t="s">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5990,11 +5593,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6014,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>194</v>
-      </c>
-      <c r="G182" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6040,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6066,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>194</v>
-      </c>
-      <c r="G184" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6092,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6118,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>194</v>
-      </c>
-      <c r="G186" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6144,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6170,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>194</v>
-      </c>
-      <c r="G188" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6196,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6222,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
+        <v>186</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
         <v>194</v>
-      </c>
-      <c r="G190" t="s">
-        <v>195</v>
-      </c>
-      <c r="H190" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6248,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6274,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>194</v>
-      </c>
-      <c r="G192" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6300,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6326,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>194</v>
-      </c>
-      <c r="G194" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6352,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6378,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>194</v>
-      </c>
-      <c r="G196" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6406,11 +5977,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6430,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6458,11 +6025,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6484,11 +6049,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6508,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>213</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6536,11 +6097,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6560,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6588,11 +6145,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6612,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6640,11 +6193,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6664,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>222</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6692,11 +6241,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6716,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" t="s">
-        <v>222</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6744,11 +6289,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6768,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" t="s">
-        <v>222</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6796,11 +6337,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6820,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" t="s">
-        <v>213</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6848,11 +6385,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6872,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" t="s">
-        <v>213</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6900,11 +6433,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6924,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6952,11 +6481,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6976,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7004,11 +6529,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7028,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
-      </c>
-      <c r="G221" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7056,11 +6577,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7080,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7108,11 +6625,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7132,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
-      </c>
-      <c r="G225" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7160,11 +6673,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7184,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7212,11 +6721,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7236,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7264,11 +6769,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7288,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
-      </c>
-      <c r="G231" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7316,11 +6817,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7340,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7368,11 +6865,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7392,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7420,11 +6913,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7444,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7472,11 +6961,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7496,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7524,11 +7009,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7548,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7576,11 +7057,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7600,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7628,11 +7105,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7652,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7680,11 +7153,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7704,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G247" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7732,11 +7201,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7756,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7784,11 +7249,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7808,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7836,11 +7297,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7860,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7888,11 +7345,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7912,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7940,11 +7393,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7964,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>222</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7992,11 +7441,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8016,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8044,11 +7489,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8068,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8094,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8120,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8146,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8172,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8198,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8224,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8250,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>222</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8276,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8302,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" t="s">
-        <v>222</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8328,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8354,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" t="s">
-        <v>219</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8380,13 +7799,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8408,11 +7825,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8432,13 +7847,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8460,11 +7873,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8484,13 +7895,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8512,11 +7921,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>12</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8536,13 +7943,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>14</v>
-      </c>
-      <c r="G279" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8564,11 +7969,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8588,13 +7991,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8616,11 +8017,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8640,13 +8039,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>14</v>
-      </c>
-      <c r="G283" t="s">
-        <v>216</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8668,11 +8065,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8692,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" t="s">
-        <v>213</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8720,11 +8113,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8744,13 +8135,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8770,13 +8159,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>14</v>
-      </c>
-      <c r="G288" t="s">
-        <v>213</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8796,13 +8183,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>14</v>
-      </c>
-      <c r="G289" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8822,13 +8207,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>14</v>
-      </c>
-      <c r="G290" t="s">
-        <v>213</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8848,13 +8231,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>14</v>
-      </c>
-      <c r="G291" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8874,13 +8255,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>14</v>
-      </c>
-      <c r="G292" t="s">
-        <v>213</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8900,13 +8279,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>14</v>
-      </c>
-      <c r="G293" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8928,11 +8305,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
